--- a/www/ig/nos/CodeSystem-TRE-R369-ProfilUtilisateurReferentielNational.xlsx
+++ b/www/ig/nos/CodeSystem-TRE-R369-ProfilUtilisateurReferentielNational.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="67">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-25T12:00:00+01:00</t>
+    <t>2024-12-13T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -197,6 +197,24 @@
   </si>
   <si>
     <t>Professionnel de Santé Libéral (PSL)</t>
+  </si>
+  <si>
+    <t>ADMIN_METIER</t>
+  </si>
+  <si>
+    <t>Administrateur Métier</t>
+  </si>
+  <si>
+    <t>SUPPORT</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>REF_MSP</t>
+  </si>
+  <si>
+    <t>Référent Maison de Santé Pluriprofessionnelle</t>
   </si>
 </sst>
 </file>
@@ -564,7 +582,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -668,6 +686,42 @@
       </c>
       <c r="D8" s="2"/>
     </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
